--- a/BackTest/2020-01-23 BackTest VET.xlsx
+++ b/BackTest/2020-01-23 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,21 @@
         <v>-843701.6388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.82</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +589,21 @@
         <v>-784850.8478</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.823</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +628,21 @@
         <v>-620168.4556</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6.824</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +667,21 @@
         <v>-647022.4262999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.846</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +706,21 @@
         <v>-461458.0737999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.834</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +747,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,22 +782,19 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.842</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.842</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -822,22 +821,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>6.842</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -864,22 +858,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>6.842</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,16 +895,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,16 +932,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,16 +969,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,16 +1006,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,16 +1043,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,16 +1080,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,16 +1117,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1158,16 +1154,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,16 +1191,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1230,16 +1228,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,16 +1265,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1302,16 +1302,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,16 +1339,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,16 +1376,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1410,16 +1413,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1446,16 +1450,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1480,18 +1485,19 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1516,18 +1522,19 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,16 +1561,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1590,16 +1598,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1626,16 +1635,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,16 +1672,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1698,16 +1709,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1734,16 +1746,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1770,16 +1783,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1806,16 +1820,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,16 +1857,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1894,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1931,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1950,16 +1968,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,16 +2005,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2022,16 +2042,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,16 +2079,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2094,16 +2116,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +2153,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,16 +2190,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,16 +2227,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2264,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2301,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2338,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2375,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2380,18 +2410,19 @@
         <v>-1076666.67085079</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2449,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2486,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2488,18 +2521,19 @@
         <v>-1084953.39355079</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2524,18 +2558,19 @@
         <v>-1084223.17815079</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2562,16 +2597,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2598,16 +2634,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2632,18 +2669,19 @@
         <v>-1218262.13275079</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2668,18 +2706,19 @@
         <v>-1225528.21115079</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,16 +2745,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2782,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2776,18 +2817,19 @@
         <v>-1218579.81465079</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,16 +2856,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,16 +2893,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2886,16 +2930,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2922,16 +2967,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +3004,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,16 +3041,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +3078,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +3115,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +3152,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +3189,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,16 +3226,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,16 +3263,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,16 +3300,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,16 +3337,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,16 +3374,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3354,16 +3411,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,16 +3448,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,16 +3485,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3522,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,16 +3559,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3534,16 +3596,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,16 +3633,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3606,16 +3670,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,16 +3707,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,16 +3744,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,16 +3781,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3748,22 +3816,19 @@
         <v>-6213088.332950793</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="K93" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,26 +3853,19 @@
         <v>-5137077.292450793</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.738</v>
-      </c>
-      <c r="K94" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3834,22 +3892,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3874,22 +3927,19 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.752</v>
-      </c>
-      <c r="K96" t="n">
-        <v>6.752</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3916,22 +3966,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.752</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3956,24 +4001,21 @@
         <v>-5924825.946350793</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>6.753</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.752</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3998,22 +4040,21 @@
         <v>-5912235.946350793</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>6.754</v>
       </c>
-      <c r="K99" t="n">
-        <v>6.754</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4038,24 +4079,21 @@
         <v>-5874828.170650793</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>6.769</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.754</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4082,22 +4120,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.754</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4124,16 +4157,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4160,16 +4194,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4196,16 +4231,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4230,24 +4266,19 @@
         <v>-5740910.104850793</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.759</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4272,24 +4303,19 @@
         <v>-5747477.957750794</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>6.759</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4314,24 +4340,21 @@
         <v>-5746316.395389497</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
         <v>6.758</v>
       </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4356,24 +4379,19 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6.759</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4398,24 +4416,21 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>6.77</v>
       </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4440,24 +4455,19 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4482,24 +4492,19 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4524,24 +4529,19 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4566,24 +4566,19 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4608,24 +4603,19 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4650,24 +4640,19 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4692,24 +4677,19 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4734,24 +4714,21 @@
         <v>-5616388.598389498</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
         <v>6.769</v>
       </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4776,24 +4753,19 @@
         <v>-5615817.167589498</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4818,24 +4790,19 @@
         <v>-5614817.167589498</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>6.771</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4860,26 +4827,21 @@
         <v>-5713829.167589498</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>6.808</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest VET.xlsx
+++ b/BackTest/2020-01-23 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1133140.1623</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1133140.1623</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -552,15 +552,9 @@
       <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>6.82</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -591,15 +585,9 @@
       <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>6.823</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,17 +616,11 @@
         <v>-620168.4556</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,17 +649,11 @@
         <v>-647022.4262999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -706,17 +682,11 @@
         <v>-461458.0737999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1374,15 +1276,11 @@
         <v>-529635.8659</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1411,15 +1309,11 @@
         <v>-532384.6283999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1448,15 +1342,11 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1485,15 +1375,11 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1522,15 +1408,11 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1559,15 +1441,11 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,15 +1474,11 @@
         <v>-488099.2487999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1633,15 +1507,11 @@
         <v>-488099.2487999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1670,15 +1540,11 @@
         <v>-1072997.252</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1707,15 +1573,11 @@
         <v>-1072762.252</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1744,15 +1606,11 @@
         <v>-1072325.44685079</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1781,15 +1639,11 @@
         <v>-1101109.08175079</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1818,15 +1672,11 @@
         <v>-911109.0817507897</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2299,15 +2101,11 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2373,15 +2167,11 @@
         <v>-1076666.67085079</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2410,15 +2200,11 @@
         <v>-1076666.67085079</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2447,15 +2233,11 @@
         <v>-1076666.67085079</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2484,15 +2266,11 @@
         <v>-1076229.86575079</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2521,15 +2299,11 @@
         <v>-1084953.39355079</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2558,15 +2332,11 @@
         <v>-1084223.17815079</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2595,15 +2365,11 @@
         <v>-1040517.63265079</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2632,15 +2398,11 @@
         <v>-1240517.63265079</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,15 +2431,11 @@
         <v>-1218262.13275079</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2706,15 +2464,11 @@
         <v>-1225528.21115079</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2747,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2784,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2817,15 +2563,11 @@
         <v>-1218579.81465079</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2858,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2932,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3006,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3117,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3154,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3187,15 +2893,11 @@
         <v>-6504320.463450791</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3224,15 +2926,11 @@
         <v>-6305973.947450791</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3261,15 +2959,11 @@
         <v>-6033811.511050791</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3298,15 +2992,11 @@
         <v>-6073509.054450791</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3335,15 +3025,11 @@
         <v>-6086943.696850792</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3372,15 +3058,11 @@
         <v>-6094359.298550792</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3409,15 +3091,11 @@
         <v>-6086936.607850792</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3450,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3520,15 +3190,11 @@
         <v>-6131653.993150793</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3557,15 +3223,11 @@
         <v>-6104666.897050793</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3631,15 +3289,11 @@
         <v>-6122473.874750793</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3709,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3746,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3783,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3857,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3968,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4001,17 +3619,11 @@
         <v>-5924825.946350793</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6.753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4040,17 +3652,11 @@
         <v>-5912235.946350793</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6.754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4079,17 +3685,11 @@
         <v>-5874828.170650793</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6.769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4122,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4159,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4196,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4233,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4270,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4307,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4340,17 +3916,11 @@
         <v>-5746316.395389497</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4416,17 +3982,11 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>6.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4459,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4496,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4533,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4570,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4644,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4681,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4714,17 +4246,11 @@
         <v>-5616388.598389498</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>6.769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4753,15 +4279,15 @@
         <v>-5615817.167589498</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4790,13 +4316,17 @@
         <v>-5614817.167589498</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>6.771</v>
+      </c>
+      <c r="J119" t="n">
+        <v>6.77</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4827,13 +4357,17 @@
         <v>-5713829.167589498</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6.808</v>
+      </c>
+      <c r="J120" t="n">
+        <v>6.77</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4842,6 +4376,6 @@
       <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest VET.xlsx
+++ b/BackTest/2020-01-23 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1133140.1623</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1133140.1623</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-843701.6388</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-784850.8478</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-461458.0737999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-529635.8659</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-532384.6283999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-488099.2487999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-488099.2487999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1072997.252</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1072762.252</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1072325.44685079</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1101109.08175079</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-911109.0817507897</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1076666.67085079</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1076666.67085079</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1076666.67085079</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1076229.86575079</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1084953.39355079</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1084223.17815079</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1040517.63265079</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1240517.63265079</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1218262.13275079</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1225528.21115079</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-6504320.463450791</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6305973.947450791</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6033811.511050791</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6073509.054450791</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6086943.696850792</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6094359.298550792</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-6086936.607850792</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-6131653.993150793</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-6104666.897050793</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-6104666.897050793</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-6122473.874750793</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-5933000.395550793</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-5977980.858750793</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-5978180.558750793</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-6213088.332950793</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-5137077.292450793</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-6006051.518950793</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-5924825.946350793</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-5912235.946350793</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4279,14 +4279,10 @@
         <v>-5615817.167589498</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4322,13 +4318,9 @@
         <v>6.771</v>
       </c>
       <c r="J119" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6.771</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4363,7 +4355,7 @@
         <v>6.808</v>
       </c>
       <c r="J120" t="n">
-        <v>6.77</v>
+        <v>6.771</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4376,6 +4368,6 @@
       <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest VET.xlsx
+++ b/BackTest/2020-01-23 BackTest VET.xlsx
@@ -715,7 +715,7 @@
         <v>-461458.0737999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-363359.8518999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-363359.8518999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-421789.5937999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-438396.1965999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-438396.1965999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-497826.7341999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-485625.2159999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-464750.8520999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-532384.6283999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-488099.2487999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-488099.2487999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1072997.252</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1072762.252</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1072325.44685079</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1101109.08175079</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-911109.0817507897</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-910609.0817507897</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-945669.0817507897</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-951276.7508507897</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1293540.75935079</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1151046.75935079</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1153359.12465079</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1153359.12465079</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1194359.12465079</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1076229.86575079</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1084953.39355079</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1084223.17815079</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1040517.63265079</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1240517.63265079</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1218262.13275079</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1225528.21115079</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1219163.58065079</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1237462.26915079</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1218579.81465079</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4551402.60955079</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-7847557.60955079</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-5724415.77205079</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-6104666.897050793</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-5933000.395550793</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-5977980.858750793</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-5978180.558750793</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-6213088.332950793</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-5137077.292450793</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-6006051.518950793</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-5924825.946350793</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-5912235.946350793</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4114,10 +4114,14 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6.769</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4150,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4190,19 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4231,19 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4272,19 @@
         <v>-5616388.598389498</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="J117" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4313,19 @@
         <v>-5615817.167589498</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6.769</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4318,9 +4360,13 @@
         <v>6.771</v>
       </c>
       <c r="J119" t="n">
-        <v>6.771</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+        <v>6.769</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4355,11 +4401,11 @@
         <v>6.808</v>
       </c>
       <c r="J120" t="n">
-        <v>6.771</v>
+        <v>6.769</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">

--- a/BackTest/2020-01-23 BackTest VET.xlsx
+++ b/BackTest/2020-01-23 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>41657.4979</v>
       </c>
       <c r="G2" t="n">
-        <v>-1133140.1623</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>29348.3969</v>
       </c>
       <c r="G3" t="n">
-        <v>-1133140.1623</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>137897.0094</v>
       </c>
       <c r="G4" t="n">
-        <v>-995243.1529</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>151541.5141</v>
       </c>
       <c r="G5" t="n">
-        <v>-843701.6388</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>58850.791</v>
       </c>
       <c r="G6" t="n">
-        <v>-784850.8478</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>164682.3922</v>
       </c>
       <c r="G7" t="n">
-        <v>-620168.4556</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>26853.9707</v>
       </c>
       <c r="G8" t="n">
-        <v>-647022.4262999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>185564.3525</v>
       </c>
       <c r="G9" t="n">
-        <v>-461458.0737999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>210259.1366</v>
       </c>
       <c r="G10" t="n">
-        <v>-461458.0737999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>59736.209</v>
       </c>
       <c r="G11" t="n">
-        <v>-401721.8647999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>52586.7677</v>
       </c>
       <c r="G12" t="n">
-        <v>-401721.8647999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>38362.0129</v>
       </c>
       <c r="G13" t="n">
-        <v>-363359.8518999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>28697</v>
       </c>
       <c r="G14" t="n">
-        <v>-363359.8518999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>58429.7419</v>
       </c>
       <c r="G15" t="n">
-        <v>-421789.5937999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>7329.0052</v>
       </c>
       <c r="G16" t="n">
-        <v>-414460.5885999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>23935.608</v>
       </c>
       <c r="G17" t="n">
-        <v>-438396.1965999999</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>96627.8373</v>
       </c>
       <c r="G18" t="n">
-        <v>-438396.1965999999</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>59430.5376</v>
       </c>
       <c r="G19" t="n">
-        <v>-497826.7341999999</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>11915.804</v>
       </c>
       <c r="G20" t="n">
-        <v>-485910.9301999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>285.7142</v>
       </c>
       <c r="G21" t="n">
-        <v>-485625.2159999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>20888.6497</v>
       </c>
       <c r="G22" t="n">
-        <v>-464736.5662999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>14.2858</v>
       </c>
       <c r="G23" t="n">
-        <v>-464750.8520999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7100.74</v>
       </c>
       <c r="G24" t="n">
-        <v>-471851.5920999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>87997.3377</v>
       </c>
       <c r="G25" t="n">
-        <v>-559848.9297999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>30213.0639</v>
       </c>
       <c r="G26" t="n">
-        <v>-529635.8659</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>190013.4485</v>
       </c>
       <c r="G27" t="n">
-        <v>-529635.8659</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2748.7625</v>
       </c>
       <c r="G28" t="n">
-        <v>-532384.6283999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>29368.4375</v>
       </c>
       <c r="G29" t="n">
-        <v>-561753.0658999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>20888.6497</v>
       </c>
       <c r="G30" t="n">
-        <v>-561753.0658999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>39998.6909</v>
       </c>
       <c r="G31" t="n">
-        <v>-561753.0658999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>7061.6926</v>
       </c>
       <c r="G32" t="n">
-        <v>-561753.0658999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>73653.8171</v>
       </c>
       <c r="G33" t="n">
-        <v>-488099.2487999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>25812.713</v>
       </c>
       <c r="G34" t="n">
-        <v>-488099.2487999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>584898.0032</v>
       </c>
       <c r="G35" t="n">
-        <v>-1072997.252</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>235</v>
       </c>
       <c r="G36" t="n">
-        <v>-1072762.252</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>436.8051492100644</v>
       </c>
       <c r="G37" t="n">
-        <v>-1072325.44685079</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>28783.6349</v>
       </c>
       <c r="G38" t="n">
-        <v>-1101109.08175079</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>190000</v>
       </c>
       <c r="G39" t="n">
-        <v>-911109.0817507897</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>500</v>
       </c>
       <c r="G40" t="n">
-        <v>-910609.0817507897</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>35060</v>
       </c>
       <c r="G41" t="n">
-        <v>-945669.0817507897</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>5607.6691</v>
       </c>
       <c r="G42" t="n">
-        <v>-951276.7508507897</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>342264.0085</v>
       </c>
       <c r="G43" t="n">
-        <v>-1293540.75935079</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>142494</v>
       </c>
       <c r="G44" t="n">
-        <v>-1151046.75935079</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2312.3653</v>
       </c>
       <c r="G45" t="n">
-        <v>-1153359.12465079</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>8920.2971</v>
       </c>
       <c r="G46" t="n">
-        <v>-1153359.12465079</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>41000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1194359.12465079</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>148427.0892</v>
       </c>
       <c r="G48" t="n">
-        <v>-1045932.03545079</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>16629.199</v>
       </c>
       <c r="G49" t="n">
-        <v>-1045932.03545079</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>6770.031</v>
       </c>
       <c r="G50" t="n">
-        <v>-1045932.03545079</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>6460.9382</v>
       </c>
       <c r="G51" t="n">
-        <v>-1045932.03545079</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>96340.9022</v>
       </c>
       <c r="G52" t="n">
-        <v>-1045932.03545079</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>51950</v>
       </c>
       <c r="G53" t="n">
-        <v>-1097882.03545079</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>21215.3646</v>
       </c>
       <c r="G54" t="n">
-        <v>-1076666.67085079</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>8001.9266</v>
       </c>
       <c r="G55" t="n">
-        <v>-1076666.67085079</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>372287.0959</v>
       </c>
       <c r="G56" t="n">
-        <v>-1076666.67085079</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>436.8051</v>
       </c>
       <c r="G57" t="n">
-        <v>-1076229.86575079</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>8723.5278</v>
       </c>
       <c r="G58" t="n">
-        <v>-1084953.39355079</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>730.2154</v>
       </c>
       <c r="G59" t="n">
-        <v>-1084223.17815079</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>43705.5455</v>
       </c>
       <c r="G60" t="n">
-        <v>-1040517.63265079</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>200000</v>
       </c>
       <c r="G61" t="n">
-        <v>-1240517.63265079</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>22255.4999</v>
       </c>
       <c r="G62" t="n">
-        <v>-1218262.13275079</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>7266.0784</v>
       </c>
       <c r="G63" t="n">
-        <v>-1225528.21115079</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>6364.6305</v>
       </c>
       <c r="G64" t="n">
-        <v>-1219163.58065079</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>18298.6885</v>
       </c>
       <c r="G65" t="n">
-        <v>-1237462.26915079</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>18882.4545</v>
       </c>
       <c r="G66" t="n">
-        <v>-1218579.81465079</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>3332822.7949</v>
       </c>
       <c r="G67" t="n">
-        <v>-4551402.60955079</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3296155</v>
       </c>
       <c r="G68" t="n">
-        <v>-7847557.60955079</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>2123141.8375</v>
       </c>
       <c r="G69" t="n">
-        <v>-5724415.77205079</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>489841.5455</v>
       </c>
       <c r="G70" t="n">
-        <v>-6214257.31755079</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>30973.0948</v>
       </c>
       <c r="G71" t="n">
-        <v>-6183284.22275079</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>324355.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>-6507640.222650791</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>279377.4426</v>
       </c>
       <c r="G73" t="n">
-        <v>-6228262.780050791</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>108352</v>
       </c>
       <c r="G74" t="n">
-        <v>-6228262.780050791</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>20978.3165</v>
       </c>
       <c r="G75" t="n">
-        <v>-6207284.463550791</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>297035.9999</v>
       </c>
       <c r="G76" t="n">
-        <v>-6504320.463450791</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>198346.516</v>
       </c>
       <c r="G77" t="n">
-        <v>-6305973.947450791</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>272162.4364</v>
       </c>
       <c r="G78" t="n">
-        <v>-6033811.511050791</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>39697.5434</v>
       </c>
       <c r="G79" t="n">
-        <v>-6073509.054450791</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>13434.6424</v>
       </c>
       <c r="G80" t="n">
-        <v>-6086943.696850792</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>7415.6017</v>
       </c>
       <c r="G81" t="n">
-        <v>-6094359.298550792</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>7422.6907</v>
       </c>
       <c r="G82" t="n">
-        <v>-6086936.607850792</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>77326.2267</v>
       </c>
       <c r="G83" t="n">
-        <v>-6164262.834550792</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>628416.2103</v>
       </c>
       <c r="G84" t="n">
-        <v>-6792679.044850793</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>661025.0517</v>
       </c>
       <c r="G85" t="n">
-        <v>-6131653.993150793</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>26987.0961</v>
       </c>
       <c r="G86" t="n">
-        <v>-6104666.897050793</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>39770.3396</v>
       </c>
       <c r="G87" t="n">
-        <v>-6104666.897050793</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>17806.9777</v>
       </c>
       <c r="G88" t="n">
-        <v>-6122473.874750793</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>189473.4792</v>
       </c>
       <c r="G89" t="n">
-        <v>-5933000.395550793</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>154181.1464</v>
       </c>
       <c r="G90" t="n">
-        <v>-6087181.541950793</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>109200.6832</v>
       </c>
       <c r="G91" t="n">
-        <v>-5977980.858750793</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>199.7</v>
       </c>
       <c r="G92" t="n">
-        <v>-5978180.558750793</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>234907.7742</v>
       </c>
       <c r="G93" t="n">
-        <v>-6213088.332950793</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,19 @@
         <v>1076011.0405</v>
       </c>
       <c r="G94" t="n">
-        <v>-5137077.292450793</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>6.738</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.738</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3237,21 @@
         <v>868974.2266000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-6006051.519050793</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>6.738</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3273,21 @@
         <v>0.0001</v>
       </c>
       <c r="G96" t="n">
-        <v>-6006051.519050793</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>6.738</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3309,19 @@
         <v>0.0001</v>
       </c>
       <c r="G97" t="n">
-        <v>-6006051.518950793</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>6.752</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.752</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3343,21 @@
         <v>81225.5726</v>
       </c>
       <c r="G98" t="n">
-        <v>-5924825.946350793</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>6.752</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3379,21 @@
         <v>12590</v>
       </c>
       <c r="G99" t="n">
-        <v>-5912235.946350793</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>6.752</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3415,15 @@
         <v>37407.7757</v>
       </c>
       <c r="G100" t="n">
-        <v>-5874828.170650793</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3445,15 @@
         <v>33639.8784</v>
       </c>
       <c r="G101" t="n">
-        <v>-5841188.292250793</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3475,15 @@
         <v>7826.5404</v>
       </c>
       <c r="G102" t="n">
-        <v>-5849014.832650794</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3505,21 @@
         <v>108104.7278</v>
       </c>
       <c r="G103" t="n">
-        <v>-5740910.104850793</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>6.749</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3541,19 @@
         <v>44536.7725</v>
       </c>
       <c r="G104" t="n">
-        <v>-5740910.104850793</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3575,19 @@
         <v>31977.8814</v>
       </c>
       <c r="G105" t="n">
-        <v>-5740910.104850793</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3609,19 @@
         <v>6567.8529</v>
       </c>
       <c r="G106" t="n">
-        <v>-5747477.957750794</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3643,19 @@
         <v>1161.56236129605</v>
       </c>
       <c r="G107" t="n">
-        <v>-5746316.395389497</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3677,19 @@
         <v>56326.9415</v>
       </c>
       <c r="G108" t="n">
-        <v>-5689989.453889498</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3711,19 @@
         <v>43117.2139</v>
       </c>
       <c r="G109" t="n">
-        <v>-5689989.453889498</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3745,19 @@
         <v>131493.1268</v>
       </c>
       <c r="G110" t="n">
-        <v>-5689989.453889498</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3779,19 @@
         <v>271388.3537</v>
       </c>
       <c r="G111" t="n">
-        <v>-5689989.453889498</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3813,19 @@
         <v>33056.438</v>
       </c>
       <c r="G112" t="n">
-        <v>-5723045.891889498</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,22 +3847,21 @@
         <v>15584.6754</v>
       </c>
       <c r="G113" t="n">
-        <v>-5723045.891889498</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
         <v>6.769</v>
       </c>
-      <c r="J113" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4148,24 +3883,21 @@
         <v>31643.493</v>
       </c>
       <c r="G114" t="n">
-        <v>-5723045.891889498</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>6.769</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4187,26 +3919,21 @@
         <v>156081.6165</v>
       </c>
       <c r="G115" t="n">
-        <v>-5723045.891889498</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
         <v>6.769</v>
       </c>
-      <c r="J115" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K115" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4228,26 +3955,21 @@
         <v>198587.0657</v>
       </c>
       <c r="G116" t="n">
-        <v>-5723045.891889498</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
         <v>6.769</v>
       </c>
-      <c r="J116" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K116" t="inlineStr">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4269,26 +3991,21 @@
         <v>106657.2935</v>
       </c>
       <c r="G117" t="n">
-        <v>-5616388.598389498</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
         <v>6.769</v>
       </c>
-      <c r="J117" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K117" t="inlineStr">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4310,26 +4027,19 @@
         <v>571.4308</v>
       </c>
       <c r="G118" t="n">
-        <v>-5615817.167589498</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4351,26 +4061,19 @@
         <v>1000</v>
       </c>
       <c r="G119" t="n">
-        <v>-5614817.167589498</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>6.771</v>
-      </c>
-      <c r="J119" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4392,26 +4095,19 @@
         <v>99012</v>
       </c>
       <c r="G120" t="n">
-        <v>-5713829.167589498</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>6.808</v>
-      </c>
-      <c r="J120" t="n">
-        <v>6.769</v>
-      </c>
-      <c r="K120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
